--- a/biology/Zoologie/Calospila_maeonoides/Calospila_maeonoides.xlsx
+++ b/biology/Zoologie/Calospila_maeonoides/Calospila_maeonoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calospila maeonoides est une espèce d'insectes lépidoptères de la famille des Riodinidae et du genre Calospila.
 </t>
@@ -511,9 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Calospila maeonoides a été décrit par Frederick DuCane Godman en 1903 sous le nom de Lemonias maeonoides[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calospila maeonoides a été décrit par Frederick DuCane Godman en 1903 sous le nom de Lemonias maeonoides.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Calospila maeonoides est un papillon au dessus orange marqué d'une ligne submarginale de points marron et d'autres petites marques marron. Le revers est beige clair avec une ligne submarginale d'ocelles et des petites marques marron.
 </t>
@@ -574,6 +590,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -599,13 +617,85 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Calospila maeonoides n'est présent qu'au Guyana[1].
-Biotope
-Il réside dans la forêt tropicale.
-Protection
-Pas de statut de protection particulier.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calospila maeonoides n'est présent qu'au Guyana.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Calospila_maeonoides</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calospila_maeonoides</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt tropicale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Calospila_maeonoides</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calospila_maeonoides</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
